--- a/output/movie_clip_copyright.xlsx
+++ b/output/movie_clip_copyright.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1318,185 +1318,185 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>dkG2rc2FGYg</t>
+          <t>2Y3pX3jrURk</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>The SURPRISING End of Wicked (*Wicked: For Good*)</t>
+          <t>Everything Wrong With Daddy&amp;#39;s Home 2 in 18 Minutes or Less</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2026-02-22T17:00:53Z</t>
+          <t>2023-12-28T16:12:19Z</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Dylan Is In Trouble</t>
+          <t>CinemaSins</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=dkG2rc2FGYg</t>
+          <t>https://www.youtube.com/watch?v=2Y3pX3jrURk</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>@DylanIsInTrouble</t>
+          <t>@CinemaSins</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>dkG2rc2FGYg.mp4</t>
+          <t>2Y3pX3jrURk.mp4</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>preserved/dkG2rc2FGYg.mp4</t>
+          <t>preserved/2Y3pX3jrURk.mp4</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>tNlhSqMmchU</t>
+          <t>PS9advp4NhA</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>I watched Lil Huddy&amp;#39;s New Movie... (*How To Lose A Popularity Contest*)</t>
+          <t>Everything Everywhere Wrong With Everything Everywhere All at Once All At Once</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2026-02-13T17:01:28Z</t>
+          <t>2022-12-29T16:09:23Z</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Dylan Is In Trouble</t>
+          <t>CinemaSins</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=tNlhSqMmchU</t>
+          <t>https://www.youtube.com/watch?v=PS9advp4NhA</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>@DylanIsInTrouble</t>
+          <t>@CinemaSins</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>tNlhSqMmchU.mp4</t>
+          <t>PS9advp4NhA.mp4</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>preserved/tNlhSqMmchU.mp4</t>
+          <t>preserved/PS9advp4NhA.mp4</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>fU5UX3Ccl7s</t>
+          <t>XTBRBdKE0dQ</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>I can&amp;#39;t do this anymore *The QB BAD BOY AND ME 2*</t>
+          <t>Everything Wrong With Fantastic Beasts: The Secrets of Dumbledore</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2025-12-18T17:01:09Z</t>
+          <t>2022-08-18T16:31:38Z</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Dylan Is In Trouble</t>
+          <t>CinemaSins</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=fU5UX3Ccl7s</t>
+          <t>https://www.youtube.com/watch?v=XTBRBdKE0dQ</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>@DylanIsInTrouble</t>
+          <t>@CinemaSins</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>fU5UX3Ccl7s.mp4</t>
+          <t>XTBRBdKE0dQ.mp4</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>preserved/fU5UX3Ccl7s.mp4</t>
+          <t>preserved/XTBRBdKE0dQ.mp4</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MGp7gZp1AGg</t>
+          <t>9iuWpq61dsg</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>This Movie is SO ROMANTIC *The Holiday*</t>
+          <t>Everything Wrong With Toy Story 2 In 14 Minutes Or Less</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2025-12-12T17:00:45Z</t>
+          <t>2015-12-24T17:09:52Z</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Dylan Is In Trouble</t>
+          <t>CinemaSins</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=MGp7gZp1AGg</t>
+          <t>https://www.youtube.com/watch?v=9iuWpq61dsg</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>@DylanIsInTrouble</t>
+          <t>@CinemaSins</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>MGp7gZp1AGg.mp4</t>
+          <t>9iuWpq61dsg.mp4</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>preserved/MGp7gZp1AGg.mp4</t>
+          <t>preserved/9iuWpq61dsg.mp4</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>7hm8XrnOh5E</t>
+          <t>dkG2rc2FGYg</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>*Freakier Friday* is TOO FREAKY</t>
+          <t>The SURPRISING End of Wicked (*Wicked: For Good*)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2025-11-21T17:00:11Z</t>
+          <t>2026-02-22T17:00:53Z</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=7hm8XrnOh5E</t>
+          <t>https://www.youtube.com/watch?v=dkG2rc2FGYg</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1516,29 +1516,29 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>7hm8XrnOh5E.mp4</t>
+          <t>dkG2rc2FGYg.mp4</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>preserved/7hm8XrnOh5E.mp4</t>
+          <t>preserved/dkG2rc2FGYg.mp4</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1zeKiwMvSMo</t>
+          <t>tNlhSqMmchU</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Disney&amp;#39;s Best Movie? *Coco*</t>
+          <t>I watched Lil Huddy&amp;#39;s New Movie... (*How To Lose A Popularity Contest*)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2025-10-28T16:00:08Z</t>
+          <t>2026-02-13T17:01:28Z</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1548,7 +1548,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=1zeKiwMvSMo</t>
+          <t>https://www.youtube.com/watch?v=tNlhSqMmchU</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1558,29 +1558,29 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1zeKiwMvSMo.mp4</t>
+          <t>tNlhSqMmchU.mp4</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>preserved/1zeKiwMvSMo.mp4</t>
+          <t>preserved/tNlhSqMmchU.mp4</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>RzwLP-6J6D8</t>
+          <t>fU5UX3Ccl7s</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Getting SO MAD Watching The Final Season of *The Summer I Turned Pretty*</t>
+          <t>I can&amp;#39;t do this anymore *The QB BAD BOY AND ME 2*</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2025-10-03T16:00:49Z</t>
+          <t>2025-12-18T17:01:09Z</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=RzwLP-6J6D8</t>
+          <t>https://www.youtube.com/watch?v=fU5UX3Ccl7s</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1600,29 +1600,29 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>RzwLP-6J6D8.mp4</t>
+          <t>fU5UX3Ccl7s.mp4</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>preserved/RzwLP-6J6D8.mp4</t>
+          <t>preserved/fU5UX3Ccl7s.mp4</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>uVkbxGCflH0</t>
+          <t>MGp7gZp1AGg</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Does *Kpop Demon Hunters* live up to the hype??</t>
+          <t>This Movie is SO ROMANTIC *The Holiday*</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2025-09-18T16:01:39Z</t>
+          <t>2025-12-12T17:00:45Z</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1632,7 +1632,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=uVkbxGCflH0</t>
+          <t>https://www.youtube.com/watch?v=MGp7gZp1AGg</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1642,29 +1642,29 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>uVkbxGCflH0.mp4</t>
+          <t>MGp7gZp1AGg.mp4</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>preserved/uVkbxGCflH0.mp4</t>
+          <t>preserved/MGp7gZp1AGg.mp4</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>v28Ym8Kl29w</t>
+          <t>7hm8XrnOh5E</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>One GOOD One GREAT *How To Train Your Dragon 2 &amp;amp; 3*</t>
+          <t>*Freakier Friday* is TOO FREAKY</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2025-08-20T16:01:37Z</t>
+          <t>2025-11-21T17:00:11Z</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1674,7 +1674,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=v28Ym8Kl29w</t>
+          <t>https://www.youtube.com/watch?v=7hm8XrnOh5E</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1684,29 +1684,29 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>v28Ym8Kl29w.mp4</t>
+          <t>7hm8XrnOh5E.mp4</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>preserved/v28Ym8Kl29w.mp4</t>
+          <t>preserved/7hm8XrnOh5E.mp4</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>60i2yFVe8H8</t>
+          <t>1zeKiwMvSMo</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>So I watched *Snow White*...</t>
+          <t>Disney&amp;#39;s Best Movie? *Coco*</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2025-07-21T16:00:08Z</t>
+          <t>2025-10-28T16:00:08Z</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=60i2yFVe8H8</t>
+          <t>https://www.youtube.com/watch?v=1zeKiwMvSMo</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1726,197 +1726,197 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>60i2yFVe8H8.mp4</t>
+          <t>1zeKiwMvSMo.mp4</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>preserved/60i2yFVe8H8.mp4</t>
+          <t>preserved/1zeKiwMvSMo.mp4</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>KSxGYHKAwBs</t>
+          <t>RzwLP-6J6D8</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Despicable Me 2 (2013) 4K - El Pollo Loco | Movieclips</t>
+          <t>Getting SO MAD Watching The Final Season of *The Summer I Turned Pretty*</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2026-02-25T22:00:17Z</t>
+          <t>2025-10-03T16:00:49Z</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Movieclips</t>
+          <t>Dylan Is In Trouble</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=KSxGYHKAwBs</t>
+          <t>https://www.youtube.com/watch?v=RzwLP-6J6D8</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>@MovieClips</t>
+          <t>@DylanIsInTrouble</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>KSxGYHKAwBs.mp4</t>
+          <t>RzwLP-6J6D8.mp4</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>preserved/KSxGYHKAwBs.mp4</t>
+          <t>preserved/RzwLP-6J6D8.mp4</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>tQ7z3n9Zu3Y</t>
+          <t>uVkbxGCflH0</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Despicable Me 2 (2013) 4K - Minion in Love | Movieclips</t>
+          <t>Does *Kpop Demon Hunters* live up to the hype??</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2026-02-25T20:00:54Z</t>
+          <t>2025-09-18T16:01:39Z</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Movieclips</t>
+          <t>Dylan Is In Trouble</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=tQ7z3n9Zu3Y</t>
+          <t>https://www.youtube.com/watch?v=uVkbxGCflH0</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>@MovieClips</t>
+          <t>@DylanIsInTrouble</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>tQ7z3n9Zu3Y.mp4</t>
+          <t>uVkbxGCflH0.mp4</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>preserved/tQ7z3n9Zu3Y.mp4</t>
+          <t>preserved/uVkbxGCflH0.mp4</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>DoJaOo7TdvU</t>
+          <t>v28Ym8Kl29w</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Despicable Me 2 (2013) 4K - Minions HATE Jelly | Movieclips</t>
+          <t>One GOOD One GREAT *How To Train Your Dragon 2 &amp;amp; 3*</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2026-02-25T18:00:23Z</t>
+          <t>2025-08-20T16:01:37Z</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Movieclips</t>
+          <t>Dylan Is In Trouble</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=DoJaOo7TdvU</t>
+          <t>https://www.youtube.com/watch?v=v28Ym8Kl29w</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>@MovieClips</t>
+          <t>@DylanIsInTrouble</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>DoJaOo7TdvU.mp4</t>
+          <t>v28Ym8Kl29w.mp4</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>preserved/DoJaOo7TdvU.mp4</t>
+          <t>preserved/v28Ym8Kl29w.mp4</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>t3Rrwn87Taw</t>
+          <t>60i2yFVe8H8</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Despicable Me 2 (2013) 4K - Goodnight Girls | Movieclips</t>
+          <t>So I watched *Snow White*...</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2026-02-25T16:01:24Z</t>
+          <t>2025-07-21T16:00:08Z</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Movieclips</t>
+          <t>Dylan Is In Trouble</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=t3Rrwn87Taw</t>
+          <t>https://www.youtube.com/watch?v=60i2yFVe8H8</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>@MovieClips</t>
+          <t>@DylanIsInTrouble</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>t3Rrwn87Taw.mp4</t>
+          <t>60i2yFVe8H8.mp4</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>preserved/t3Rrwn87Taw.mp4</t>
+          <t>preserved/60i2yFVe8H8.mp4</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>7M_XnhnmTro</t>
+          <t>KSxGYHKAwBs</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Despicable Me 2 (2013) 4K - Fairy Gru | Movieclips</t>
+          <t>Despicable Me 2 (2013) 4K - El Pollo Loco | Movieclips</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2026-02-25T14:00:10Z</t>
+          <t>2026-02-25T22:00:17Z</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1926,7 +1926,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=7M_XnhnmTro</t>
+          <t>https://www.youtube.com/watch?v=KSxGYHKAwBs</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1936,29 +1936,29 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>7M_XnhnmTro.mp4</t>
+          <t>KSxGYHKAwBs.mp4</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>preserved/7M_XnhnmTro.mp4</t>
+          <t>preserved/KSxGYHKAwBs.mp4</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>FD1KwcJwUzU</t>
+          <t>tQ7z3n9Zu3Y</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1776 (1972) - Yours, Yours, Yours (Reprise) | Movieclips</t>
+          <t>Despicable Me 2 (2013) 4K - Minion in Love | Movieclips</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2026-02-24T22:00:19Z</t>
+          <t>2026-02-25T20:00:54Z</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=FD1KwcJwUzU</t>
+          <t>https://www.youtube.com/watch?v=tQ7z3n9Zu3Y</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1978,29 +1978,29 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>FD1KwcJwUzU.mp4</t>
+          <t>tQ7z3n9Zu3Y.mp4</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>preserved/FD1KwcJwUzU.mp4</t>
+          <t>preserved/tQ7z3n9Zu3Y.mp4</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>WThBT6JTNS4</t>
+          <t>DoJaOo7TdvU</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1776 (2025) 4K - Molasses to Rum | Movieclips</t>
+          <t>Despicable Me 2 (2013) 4K - Minions HATE Jelly | Movieclips</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2026-02-24T21:00:38Z</t>
+          <t>2026-02-25T18:00:23Z</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2010,7 +2010,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=WThBT6JTNS4</t>
+          <t>https://www.youtube.com/watch?v=DoJaOo7TdvU</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2020,29 +2020,29 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>WThBT6JTNS4.mp4</t>
+          <t>DoJaOo7TdvU.mp4</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>preserved/WThBT6JTNS4.mp4</t>
+          <t>preserved/DoJaOo7TdvU.mp4</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>DU6jTEniMKk</t>
+          <t>t3Rrwn87Taw</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1776 (1972) 4K - The Egg (Wtf, Ben Franklin) | Movieclips</t>
+          <t>Despicable Me 2 (2013) 4K - Goodnight Girls | Movieclips</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2026-02-24T20:00:21Z</t>
+          <t>2026-02-25T16:01:24Z</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2052,7 +2052,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=DU6jTEniMKk</t>
+          <t>https://www.youtube.com/watch?v=t3Rrwn87Taw</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2062,29 +2062,29 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>DU6jTEniMKk.mp4</t>
+          <t>t3Rrwn87Taw.mp4</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>preserved/DU6jTEniMKk.mp4</t>
+          <t>preserved/t3Rrwn87Taw.mp4</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Chp-a9TULaw</t>
+          <t>7M_XnhnmTro</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1776 (1972) 4K - Mama Look Sharp | Movieclips</t>
+          <t>Despicable Me 2 (2013) 4K - Fairy Gru | Movieclips</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2026-02-24T19:00:10Z</t>
+          <t>2026-02-25T14:00:10Z</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2094,7 +2094,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=Chp-a9TULaw</t>
+          <t>https://www.youtube.com/watch?v=7M_XnhnmTro</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2104,52 +2104,220 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Chp-a9TULaw.mp4</t>
+          <t>7M_XnhnmTro.mp4</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>preserved/Chp-a9TULaw.mp4</t>
+          <t>preserved/7M_XnhnmTro.mp4</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>FD1KwcJwUzU</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>1776 (1972) - Yours, Yours, Yours (Reprise) | Movieclips</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2026-02-24T22:00:19Z</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Movieclips</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=FD1KwcJwUzU</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>@MovieClips</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>FD1KwcJwUzU.mp4</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>preserved/FD1KwcJwUzU.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>WThBT6JTNS4</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1776 (2025) 4K - Molasses to Rum | Movieclips</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2026-02-24T21:00:38Z</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Movieclips</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=WThBT6JTNS4</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>@MovieClips</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>WThBT6JTNS4.mp4</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>preserved/WThBT6JTNS4.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>DU6jTEniMKk</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>1776 (1972) 4K - The Egg (Wtf, Ben Franklin) | Movieclips</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2026-02-24T20:00:21Z</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Movieclips</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=DU6jTEniMKk</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>@MovieClips</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>DU6jTEniMKk.mp4</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>preserved/DU6jTEniMKk.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Chp-a9TULaw</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>1776 (1972) 4K - Mama Look Sharp | Movieclips</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2026-02-24T19:00:10Z</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Movieclips</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=Chp-a9TULaw</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>@MovieClips</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Chp-a9TULaw.mp4</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>preserved/Chp-a9TULaw.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
           <t>01nzCEriFAA</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>1776 (1972) 4K - Cool, Cool Considerate Men | Movieclips</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>2026-02-24T18:00:00Z</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>Movieclips</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>https://www.youtube.com/watch?v=01nzCEriFAA</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>@MovieClips</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>01nzCEriFAA.mp4</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>preserved/01nzCEriFAA.mp4</t>
         </is>
